--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,16 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,6 +428,34 @@
       </c>
       <c r="D2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>43688.710416666669</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43688.997916666667</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43689.866666666669</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43690.034722222219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>20分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结算</t>
+  </si>
+  <si>
+    <t>未结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -402,7 +417,7 @@
     <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +430,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43687.941666666666</v>
       </c>
@@ -429,8 +447,11 @@
       <c r="D2">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43688.710416666669</v>
       </c>
@@ -443,8 +464,11 @@
       <c r="D3">
         <v>4.5</v>
       </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43689.866666666669</v>
       </c>
@@ -456,6 +480,26 @@
       </c>
       <c r="D4">
         <v>3.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>43691.880555555559</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43691.048611111109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>未结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,7 +491,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>43691.880555555559</v>
+        <v>43690.880555555559</v>
       </c>
       <c r="B5" s="1">
         <v>43691.048611111109</v>
@@ -499,6 +503,23 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>43691.894444444442</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43692.061805555553</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +55,14 @@
   </si>
   <si>
     <t>未结算</t>
-  </si>
-  <si>
-    <t>未结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -469,7 +470,7 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -486,7 +487,7 @@
         <v>3.5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -503,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -514,13 +515,27 @@
         <v>43692.061805555553</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>3.5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>43693.965277777781</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43694.05</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>已结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" activeCellId="1" sqref="E8 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,6 +543,40 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43695.815972222219</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43696.043055555558</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>43696.868055555555</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43697.048611111109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>20分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="E8 E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,6 +581,23 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43698.914583333331</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43699.061805555553</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>

--- a/音吖小程序工作时间记录.xlsx
+++ b/音吖小程序工作时间记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,6 +598,20 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>43699.923611111109</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43335.01666666667</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
     </row>
